--- a/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/程序员客栈项目功能清单及报价单（因卓科技教育平台）修改版1.2_确认进入原型设计.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/需求梳理final/最终确认文档归档/程序员客栈项目功能清单及报价单（因卓科技教育平台）修改版1.2_确认进入原型设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\需求梳理final\需求拆解\需求拆解方案1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\需求梳理final\最终确认文档归档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10956" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="阶段拆分说明" sheetId="1" r:id="rId1"/>
@@ -1994,9 +1994,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2006,16 +2003,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2027,13 +2024,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2054,10 +2057,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3252,12 +3252,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="115.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="115.88671875" style="1" customWidth="1"/>
     <col min="3" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3350,26 +3350,26 @@
   </sheetPr>
   <dimension ref="A1:IV240"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A115" workbookViewId="0">
       <selection activeCell="B40" sqref="B40:B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.5546875" style="4" customWidth="1"/>
     <col min="12" max="14" width="11" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="4" customWidth="1"/>
-    <col min="18" max="256" width="16.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" style="4" customWidth="1"/>
+    <col min="18" max="256" width="16.44140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1">
@@ -3473,7 +3473,7 @@
       <c r="P5" s="75"/>
       <c r="Q5" s="76"/>
     </row>
-    <row r="6" spans="1:17" ht="43.15" customHeight="1">
+    <row r="6" spans="1:17" ht="43.2" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="7" spans="1:17" ht="36.9" customHeight="1">
       <c r="A7" s="86" t="s">
         <v>21</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="36"/>
     </row>
-    <row r="12" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="12" spans="1:17" ht="36.9" customHeight="1">
       <c r="A12" s="85"/>
       <c r="B12" s="66"/>
       <c r="C12" s="31" t="s">
@@ -3787,7 +3787,7 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="36"/>
     </row>
-    <row r="14" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="14" spans="1:17" ht="36.9" customHeight="1">
       <c r="A14" s="85"/>
       <c r="B14" s="66"/>
       <c r="C14" s="31" t="s">
@@ -3822,7 +3822,7 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="36"/>
     </row>
-    <row r="15" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="15" spans="1:17" ht="36.9" customHeight="1">
       <c r="A15" s="85"/>
       <c r="B15" s="60" t="s">
         <v>43</v>
@@ -4433,7 +4433,7 @@
       <c r="P31" s="35"/>
       <c r="Q31" s="36"/>
     </row>
-    <row r="32" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="32" spans="1:17" ht="36.9" customHeight="1">
       <c r="A32" s="85"/>
       <c r="B32" s="61"/>
       <c r="C32" s="37" t="s">
@@ -4468,7 +4468,7 @@
       <c r="P32" s="35"/>
       <c r="Q32" s="36"/>
     </row>
-    <row r="33" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="33" spans="1:17" ht="36.9" customHeight="1">
       <c r="A33" s="85"/>
       <c r="B33" s="61"/>
       <c r="C33" s="60" t="s">
@@ -4509,7 +4509,7 @@
       <c r="P33" s="35"/>
       <c r="Q33" s="36"/>
     </row>
-    <row r="34" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="34" spans="1:17" ht="36.9" customHeight="1">
       <c r="A34" s="85"/>
       <c r="B34" s="61"/>
       <c r="C34" s="61"/>
@@ -4690,7 +4690,7 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="36"/>
     </row>
-    <row r="39" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="39" spans="1:17" ht="36.9" customHeight="1">
       <c r="A39" s="85"/>
       <c r="B39" s="61"/>
       <c r="C39" s="61"/>
@@ -4725,7 +4725,7 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="36"/>
     </row>
-    <row r="40" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="40" spans="1:17" ht="36.9" customHeight="1">
       <c r="A40" s="85"/>
       <c r="B40" s="65" t="s">
         <v>366</v>
@@ -4840,7 +4840,7 @@
       <c r="P42" s="35"/>
       <c r="Q42" s="36"/>
     </row>
-    <row r="43" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="43" spans="1:17" ht="36.9" customHeight="1">
       <c r="A43" s="85"/>
       <c r="B43" s="63"/>
       <c r="C43" s="68"/>
@@ -4951,7 +4951,7 @@
       <c r="P45" s="35"/>
       <c r="Q45" s="36"/>
     </row>
-    <row r="46" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="46" spans="1:17" ht="36.9" customHeight="1">
       <c r="A46" s="85"/>
       <c r="B46" s="63"/>
       <c r="C46" s="68"/>
@@ -4986,7 +4986,7 @@
       <c r="P46" s="35"/>
       <c r="Q46" s="36"/>
     </row>
-    <row r="47" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="47" spans="1:17" ht="36.9" customHeight="1">
       <c r="A47" s="85"/>
       <c r="B47" s="63"/>
       <c r="C47" s="68"/>
@@ -5210,7 +5210,7 @@
       <c r="P54" s="35"/>
       <c r="Q54" s="36"/>
     </row>
-    <row r="55" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="55" spans="1:17" ht="36.9" customHeight="1">
       <c r="A55" s="85"/>
       <c r="B55" s="63"/>
       <c r="C55" s="68"/>
@@ -5296,7 +5296,7 @@
       <c r="P58" s="35"/>
       <c r="Q58" s="36"/>
     </row>
-    <row r="59" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="59" spans="1:17" ht="36.9" customHeight="1">
       <c r="A59" s="85"/>
       <c r="B59" s="63"/>
       <c r="C59" s="69"/>
@@ -5550,7 +5550,7 @@
       <c r="P66" s="35"/>
       <c r="Q66" s="36"/>
     </row>
-    <row r="67" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="67" spans="1:17" ht="36.9" customHeight="1">
       <c r="A67" s="85"/>
       <c r="B67" s="63"/>
       <c r="C67" s="63"/>
@@ -5724,7 +5724,7 @@
       <c r="P72" s="35"/>
       <c r="Q72" s="36"/>
     </row>
-    <row r="73" spans="1:17" ht="66.95" customHeight="1">
+    <row r="73" spans="1:17" ht="66.900000000000006" customHeight="1">
       <c r="A73" s="85"/>
       <c r="B73" s="63"/>
       <c r="C73" s="63"/>
@@ -5996,7 +5996,7 @@
       <c r="P80" s="35"/>
       <c r="Q80" s="36"/>
     </row>
-    <row r="81" spans="1:17" ht="66.95" customHeight="1">
+    <row r="81" spans="1:17" ht="66.900000000000006" customHeight="1">
       <c r="A81" s="85"/>
       <c r="B81" s="63"/>
       <c r="C81" s="63"/>
@@ -6066,7 +6066,7 @@
       <c r="P82" s="35"/>
       <c r="Q82" s="36"/>
     </row>
-    <row r="83" spans="1:17" ht="66.95" customHeight="1">
+    <row r="83" spans="1:17" ht="66.900000000000006" customHeight="1">
       <c r="A83" s="85"/>
       <c r="B83" s="60" t="s">
         <v>170</v>
@@ -6204,7 +6204,7 @@
       <c r="P86" s="35"/>
       <c r="Q86" s="36"/>
     </row>
-    <row r="87" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="87" spans="1:17" ht="36.9" customHeight="1">
       <c r="A87" s="85"/>
       <c r="B87" s="63"/>
       <c r="C87" s="60" t="s">
@@ -6346,7 +6346,7 @@
       <c r="P90" s="35"/>
       <c r="Q90" s="36"/>
     </row>
-    <row r="91" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="91" spans="1:17" ht="36.9" customHeight="1">
       <c r="A91" s="85"/>
       <c r="B91" s="63"/>
       <c r="C91" s="61"/>
@@ -6418,7 +6418,7 @@
       <c r="P92" s="35"/>
       <c r="Q92" s="36"/>
     </row>
-    <row r="93" spans="1:17" ht="87.95" customHeight="1">
+    <row r="93" spans="1:17" ht="87.9" customHeight="1">
       <c r="A93" s="85"/>
       <c r="B93" s="63"/>
       <c r="C93" s="37" t="s">
@@ -6494,7 +6494,7 @@
       <c r="P94" s="35"/>
       <c r="Q94" s="36"/>
     </row>
-    <row r="95" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="95" spans="1:17" ht="36.9" customHeight="1">
       <c r="A95" s="85"/>
       <c r="B95" s="61"/>
       <c r="C95" s="61"/>
@@ -6605,7 +6605,7 @@
       <c r="P97" s="35"/>
       <c r="Q97" s="36"/>
     </row>
-    <row r="98" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="98" spans="1:17" ht="36.9" customHeight="1">
       <c r="A98" s="85"/>
       <c r="B98" s="37" t="s">
         <v>196</v>
@@ -6642,7 +6642,7 @@
       <c r="P98" s="35"/>
       <c r="Q98" s="36"/>
     </row>
-    <row r="99" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="99" spans="1:17" ht="36.9" customHeight="1">
       <c r="A99" s="85"/>
       <c r="B99" s="37" t="s">
         <v>199</v>
@@ -6679,7 +6679,7 @@
       <c r="P99" s="35"/>
       <c r="Q99" s="36"/>
     </row>
-    <row r="100" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="100" spans="1:17" ht="36.9" customHeight="1">
       <c r="A100" s="85"/>
       <c r="B100" s="78" t="s">
         <v>202</v>
@@ -6716,7 +6716,7 @@
       <c r="P100" s="35"/>
       <c r="Q100" s="36"/>
     </row>
-    <row r="101" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="101" spans="1:17" ht="36.9" customHeight="1">
       <c r="A101" s="85"/>
       <c r="B101" s="61"/>
       <c r="C101" s="41" t="s">
@@ -6751,7 +6751,7 @@
       <c r="P101" s="35"/>
       <c r="Q101" s="36"/>
     </row>
-    <row r="102" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="102" spans="1:17" ht="36.9" customHeight="1">
       <c r="A102" s="85"/>
       <c r="B102" s="61"/>
       <c r="C102" s="41" t="s">
@@ -6786,7 +6786,7 @@
       <c r="P102" s="35"/>
       <c r="Q102" s="36"/>
     </row>
-    <row r="103" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="103" spans="1:17" ht="36.9" customHeight="1">
       <c r="A103" s="85"/>
       <c r="B103" s="61"/>
       <c r="C103" s="41" t="s">
@@ -6821,7 +6821,7 @@
       <c r="P103" s="35"/>
       <c r="Q103" s="36"/>
     </row>
-    <row r="104" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="104" spans="1:17" ht="36.9" customHeight="1">
       <c r="A104" s="85"/>
       <c r="B104" s="61"/>
       <c r="C104" s="41" t="s">
@@ -6895,7 +6895,7 @@
       <c r="P105" s="35"/>
       <c r="Q105" s="36"/>
     </row>
-    <row r="106" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="106" spans="1:17" ht="36.9" customHeight="1">
       <c r="A106" s="85"/>
       <c r="B106" s="66"/>
       <c r="C106" s="31" t="s">
@@ -6959,7 +6959,7 @@
       <c r="P107" s="35"/>
       <c r="Q107" s="36"/>
     </row>
-    <row r="108" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="108" spans="1:17" ht="36.9" customHeight="1">
       <c r="A108" s="85"/>
       <c r="B108" s="66"/>
       <c r="C108" s="31" t="s">
@@ -6990,7 +6990,7 @@
       <c r="P108" s="35"/>
       <c r="Q108" s="36"/>
     </row>
-    <row r="109" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="109" spans="1:17" ht="36.9" customHeight="1">
       <c r="A109" s="85"/>
       <c r="B109" s="60" t="s">
         <v>43</v>
@@ -7221,7 +7221,7 @@
       <c r="P115" s="35"/>
       <c r="Q115" s="36"/>
     </row>
-    <row r="116" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="116" spans="1:17" ht="36.9" customHeight="1">
       <c r="A116" s="85"/>
       <c r="B116" s="61"/>
       <c r="C116" s="61"/>
@@ -7283,7 +7283,7 @@
       <c r="P117" s="35"/>
       <c r="Q117" s="36"/>
     </row>
-    <row r="118" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="118" spans="1:17" ht="36.9" customHeight="1">
       <c r="A118" s="85"/>
       <c r="B118" s="60" t="s">
         <v>101</v>
@@ -7448,7 +7448,7 @@
       <c r="P122" s="35"/>
       <c r="Q122" s="36"/>
     </row>
-    <row r="123" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="123" spans="1:17" ht="36.9" customHeight="1">
       <c r="A123" s="85"/>
       <c r="B123" s="37" t="s">
         <v>196</v>
@@ -7481,7 +7481,7 @@
       <c r="P123" s="35"/>
       <c r="Q123" s="36"/>
     </row>
-    <row r="124" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="124" spans="1:17" ht="36.9" customHeight="1">
       <c r="A124" s="85"/>
       <c r="B124" s="37" t="s">
         <v>199</v>
@@ -7670,7 +7670,7 @@
       <c r="P130" s="35"/>
       <c r="Q130" s="36"/>
     </row>
-    <row r="131" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="131" spans="1:17" ht="36.9" customHeight="1">
       <c r="A131" s="85"/>
       <c r="B131" s="66"/>
       <c r="C131" s="66"/>
@@ -7695,7 +7695,7 @@
       <c r="P131" s="35"/>
       <c r="Q131" s="36"/>
     </row>
-    <row r="132" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="132" spans="1:17" ht="36.9" customHeight="1">
       <c r="A132" s="85"/>
       <c r="B132" s="66"/>
       <c r="C132" s="66"/>
@@ -7880,7 +7880,7 @@
       <c r="P138" s="35"/>
       <c r="Q138" s="36"/>
     </row>
-    <row r="139" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="139" spans="1:17" ht="36.9" customHeight="1">
       <c r="A139" s="85"/>
       <c r="B139" s="66"/>
       <c r="C139" s="66"/>
@@ -7957,7 +7957,7 @@
       <c r="P141" s="35"/>
       <c r="Q141" s="36"/>
     </row>
-    <row r="142" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="142" spans="1:17" ht="36.9" customHeight="1">
       <c r="A142" s="85"/>
       <c r="B142" s="66"/>
       <c r="C142" s="66"/>
@@ -8007,7 +8007,7 @@
       <c r="P143" s="35"/>
       <c r="Q143" s="36"/>
     </row>
-    <row r="144" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="144" spans="1:17" ht="36.9" customHeight="1">
       <c r="A144" s="85"/>
       <c r="B144" s="66"/>
       <c r="C144" s="65" t="s">
@@ -8059,7 +8059,7 @@
       <c r="P145" s="35"/>
       <c r="Q145" s="36"/>
     </row>
-    <row r="146" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="146" spans="1:17" ht="36.9" customHeight="1">
       <c r="A146" s="85"/>
       <c r="B146" s="66"/>
       <c r="C146" s="65" t="s">
@@ -8111,7 +8111,7 @@
       <c r="P147" s="35"/>
       <c r="Q147" s="36"/>
     </row>
-    <row r="148" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="148" spans="1:17" ht="36.9" customHeight="1">
       <c r="A148" s="85"/>
       <c r="B148" s="60" t="s">
         <v>274</v>
@@ -8188,7 +8188,7 @@
       <c r="P150" s="35"/>
       <c r="Q150" s="36"/>
     </row>
-    <row r="151" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="151" spans="1:17" ht="36.9" customHeight="1">
       <c r="A151" s="85"/>
       <c r="B151" s="60" t="s">
         <v>43</v>
@@ -8487,7 +8487,7 @@
       <c r="P161" s="35"/>
       <c r="Q161" s="36"/>
     </row>
-    <row r="162" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="162" spans="1:17" ht="36.9" customHeight="1">
       <c r="A162" s="85"/>
       <c r="B162" s="37" t="s">
         <v>196</v>
@@ -8514,7 +8514,7 @@
       <c r="P162" s="35"/>
       <c r="Q162" s="36"/>
     </row>
-    <row r="163" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="163" spans="1:17" ht="36.9" customHeight="1">
       <c r="A163" s="85"/>
       <c r="B163" s="37" t="s">
         <v>199</v>
@@ -8562,7 +8562,7 @@
       <c r="H164" s="62">
         <v>1.25</v>
       </c>
-      <c r="I164" s="90">
+      <c r="I164" s="89">
         <v>1.25</v>
       </c>
       <c r="J164" s="64">
@@ -8644,7 +8644,7 @@
       <c r="P166" s="35"/>
       <c r="Q166" s="36"/>
     </row>
-    <row r="167" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="167" spans="1:17" ht="36.9" customHeight="1">
       <c r="A167" s="66"/>
       <c r="B167" s="66"/>
       <c r="C167" s="61"/>
@@ -8934,7 +8934,7 @@
       <c r="P176" s="35"/>
       <c r="Q176" s="36"/>
     </row>
-    <row r="177" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="177" spans="1:17" ht="36.9" customHeight="1">
       <c r="A177" s="66"/>
       <c r="B177" s="66"/>
       <c r="C177" s="61"/>
@@ -8963,7 +8963,7 @@
       <c r="P177" s="35"/>
       <c r="Q177" s="36"/>
     </row>
-    <row r="178" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="178" spans="1:17" ht="36.9" customHeight="1">
       <c r="A178" s="66"/>
       <c r="B178" s="66"/>
       <c r="C178" s="60" t="s">
@@ -9259,7 +9259,7 @@
       <c r="P187" s="35"/>
       <c r="Q187" s="36"/>
     </row>
-    <row r="188" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="188" spans="1:17" ht="36.9" customHeight="1">
       <c r="A188" s="66"/>
       <c r="B188" s="66"/>
       <c r="C188" s="61"/>
@@ -9967,7 +9967,7 @@
       <c r="P211" s="35"/>
       <c r="Q211" s="36"/>
     </row>
-    <row r="212" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="212" spans="1:17" ht="36.9" customHeight="1">
       <c r="A212" s="66"/>
       <c r="B212" s="66"/>
       <c r="C212" s="61"/>
@@ -10077,14 +10077,14 @@
       <c r="J215" s="64">
         <v>0.25</v>
       </c>
-      <c r="K215" s="87"/>
+      <c r="K215" s="90"/>
       <c r="L215" s="64">
         <v>1</v>
       </c>
       <c r="M215" s="64">
         <v>1</v>
       </c>
-      <c r="N215" s="87"/>
+      <c r="N215" s="90"/>
       <c r="O215" s="64">
         <v>1.5</v>
       </c>
@@ -10196,7 +10196,7 @@
       <c r="P220" s="35"/>
       <c r="Q220" s="36"/>
     </row>
-    <row r="221" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="221" spans="1:17" ht="36.9" customHeight="1">
       <c r="A221" s="85"/>
       <c r="B221" s="66"/>
       <c r="C221" s="31" t="s">
@@ -10229,7 +10229,7 @@
       <c r="P221" s="35"/>
       <c r="Q221" s="36"/>
     </row>
-    <row r="222" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="222" spans="1:17" ht="36.9" customHeight="1">
       <c r="A222" s="85"/>
       <c r="B222" s="66"/>
       <c r="C222" s="65" t="s">
@@ -10260,7 +10260,7 @@
       <c r="P222" s="35"/>
       <c r="Q222" s="36"/>
     </row>
-    <row r="223" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="223" spans="1:17" ht="36.9" customHeight="1">
       <c r="A223" s="85"/>
       <c r="B223" s="66"/>
       <c r="C223" s="77"/>
@@ -10304,14 +10304,14 @@
       <c r="J224" s="64">
         <v>0.25</v>
       </c>
-      <c r="K224" s="87"/>
+      <c r="K224" s="90"/>
       <c r="L224" s="64">
         <v>0.5</v>
       </c>
       <c r="M224" s="64">
         <v>0.5</v>
       </c>
-      <c r="N224" s="87"/>
+      <c r="N224" s="90"/>
       <c r="O224" s="64">
         <v>1</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>172.77300000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="22.9" customHeight="1">
+    <row r="237" spans="1:17" ht="22.95" customHeight="1">
       <c r="A237" s="47" t="s">
         <v>362</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="E238" s="48"/>
       <c r="F238" s="49"/>
       <c r="G238" s="49"/>
-      <c r="H238" s="88">
+      <c r="H238" s="87">
         <f>H237+I237+J237+K237+L237+M237+N237+O237+P237+Q237</f>
         <v>250810.37142857144</v>
       </c>
@@ -10761,7 +10761,7 @@
       <c r="E239" s="48"/>
       <c r="F239" s="49"/>
       <c r="G239" s="49"/>
-      <c r="H239" s="88">
+      <c r="H239" s="87">
         <f>H238*1.06</f>
         <v>265858.99371428572</v>
       </c>
@@ -10776,7 +10776,7 @@
       <c r="Q239" s="63"/>
     </row>
     <row r="240" spans="1:17" ht="143.1" customHeight="1">
-      <c r="A240" s="89" t="s">
+      <c r="A240" s="88" t="s">
         <v>365</v>
       </c>
       <c r="B240" s="63"/>
@@ -10817,6 +10817,11 @@
     <mergeCell ref="L65:L68"/>
     <mergeCell ref="B105:B106"/>
     <mergeCell ref="I226:I229"/>
+    <mergeCell ref="A105:A124"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="J222:J223"/>
+    <mergeCell ref="K224:K225"/>
+    <mergeCell ref="K215:K220"/>
     <mergeCell ref="H239:Q239"/>
     <mergeCell ref="A240:Q240"/>
     <mergeCell ref="D37:D38"/>
@@ -10865,8 +10870,6 @@
     <mergeCell ref="J178:J188"/>
     <mergeCell ref="M224:M225"/>
     <mergeCell ref="L50:L59"/>
-    <mergeCell ref="A105:A124"/>
-    <mergeCell ref="C224:C225"/>
     <mergeCell ref="H7:H21"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="K189:K197"/>
@@ -10876,18 +10879,15 @@
     <mergeCell ref="D77:D82"/>
     <mergeCell ref="C178:C188"/>
     <mergeCell ref="C153:C157"/>
-    <mergeCell ref="J222:J223"/>
     <mergeCell ref="C118:C120"/>
     <mergeCell ref="C146:C147"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D65:D68"/>
     <mergeCell ref="D155:D156"/>
-    <mergeCell ref="K224:K225"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="H22:H39"/>
     <mergeCell ref="I105:I124"/>
     <mergeCell ref="B109:B113"/>
-    <mergeCell ref="K215:K220"/>
     <mergeCell ref="H5:Q5"/>
     <mergeCell ref="C222:C223"/>
     <mergeCell ref="H105:H124"/>
@@ -10953,29 +10953,29 @@
   </sheetPr>
   <dimension ref="A1:IV122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="6" ySplit="6" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37:B47"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="54" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="54" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="54" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="54" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" style="54" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="54" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="54" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="54" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="54" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="54" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="54" customWidth="1"/>
+    <col min="10" max="11" width="9.5546875" style="54" customWidth="1"/>
     <col min="12" max="14" width="11" style="54" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="54" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="54" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="54" customWidth="1"/>
-    <col min="18" max="256" width="16.42578125" style="54" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="54" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" style="54" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" style="54" customWidth="1"/>
+    <col min="18" max="256" width="16.44140625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1">
@@ -11079,7 +11079,7 @@
       <c r="P5" s="75"/>
       <c r="Q5" s="76"/>
     </row>
-    <row r="6" spans="1:17" ht="43.15" customHeight="1">
+    <row r="6" spans="1:17" ht="43.2" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="7" spans="1:17" ht="36.9" customHeight="1">
       <c r="A7" s="86" t="s">
         <v>21</v>
       </c>
@@ -11321,7 +11321,7 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="36"/>
     </row>
-    <row r="12" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="12" spans="1:17" ht="36.9" customHeight="1">
       <c r="A12" s="85"/>
       <c r="B12" s="66"/>
       <c r="C12" s="31" t="s">
@@ -11393,7 +11393,7 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="36"/>
     </row>
-    <row r="14" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="14" spans="1:17" ht="36.9" customHeight="1">
       <c r="A14" s="85"/>
       <c r="B14" s="66"/>
       <c r="C14" s="31" t="s">
@@ -11428,7 +11428,7 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="36"/>
     </row>
-    <row r="15" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="15" spans="1:17" ht="36.9" customHeight="1">
       <c r="A15" s="85"/>
       <c r="B15" s="60" t="s">
         <v>43</v>
@@ -12002,7 +12002,7 @@
       <c r="P30" s="35"/>
       <c r="Q30" s="36"/>
     </row>
-    <row r="31" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="31" spans="1:17" ht="36.9" customHeight="1">
       <c r="A31" s="85"/>
       <c r="B31" s="61"/>
       <c r="C31" s="37" t="s">
@@ -12183,7 +12183,7 @@
       <c r="P35" s="35"/>
       <c r="Q35" s="36"/>
     </row>
-    <row r="36" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="36" spans="1:17" ht="36.9" customHeight="1">
       <c r="A36" s="85"/>
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="37" spans="1:17" ht="54" customHeight="1">
       <c r="A37" s="85"/>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="92" t="s">
         <v>366</v>
       </c>
       <c r="C37" s="60" t="s">
@@ -12261,7 +12261,7 @@
     </row>
     <row r="38" spans="1:17" ht="71.099999999999994" customHeight="1">
       <c r="A38" s="85"/>
-      <c r="B38" s="108"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="63"/>
       <c r="D38" s="37" t="s">
         <v>103</v>
@@ -12296,7 +12296,7 @@
     </row>
     <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="85"/>
-      <c r="B39" s="108"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="63"/>
       <c r="D39" s="60" t="s">
         <v>144</v>
@@ -12331,7 +12331,7 @@
     </row>
     <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="85"/>
-      <c r="B40" s="108"/>
+      <c r="B40" s="93"/>
       <c r="C40" s="63"/>
       <c r="D40" s="61"/>
       <c r="E40" s="37" t="s">
@@ -12364,7 +12364,7 @@
     </row>
     <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="85"/>
-      <c r="B41" s="108"/>
+      <c r="B41" s="93"/>
       <c r="C41" s="63"/>
       <c r="D41" s="37" t="s">
         <v>147</v>
@@ -12397,7 +12397,7 @@
     </row>
     <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="85"/>
-      <c r="B42" s="108"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="63"/>
       <c r="D42" s="60" t="s">
         <v>148</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="85"/>
-      <c r="B43" s="108"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="63"/>
       <c r="D43" s="61"/>
       <c r="E43" s="37" t="s">
@@ -12455,9 +12455,9 @@
       <c r="P43" s="35"/>
       <c r="Q43" s="36"/>
     </row>
-    <row r="44" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="44" spans="1:17" ht="36.9" customHeight="1">
       <c r="A44" s="85"/>
-      <c r="B44" s="108"/>
+      <c r="B44" s="93"/>
       <c r="C44" s="63"/>
       <c r="D44" s="61"/>
       <c r="E44" s="37" t="s">
@@ -12482,7 +12482,7 @@
     </row>
     <row r="45" spans="1:17" ht="105" customHeight="1">
       <c r="A45" s="85"/>
-      <c r="B45" s="108"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="63"/>
       <c r="D45" s="61"/>
       <c r="E45" s="37" t="s">
@@ -12509,7 +12509,7 @@
     </row>
     <row r="46" spans="1:17" ht="122.1" customHeight="1">
       <c r="A46" s="85"/>
-      <c r="B46" s="108"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="60" t="s">
         <v>166</v>
       </c>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="47" spans="1:17" ht="105" customHeight="1">
       <c r="A47" s="85"/>
-      <c r="B47" s="108"/>
+      <c r="B47" s="93"/>
       <c r="C47" s="63"/>
       <c r="D47" s="37" t="s">
         <v>154</v>
@@ -12624,7 +12624,7 @@
       <c r="P48" s="35"/>
       <c r="Q48" s="36"/>
     </row>
-    <row r="49" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="49" spans="1:17" ht="36.9" customHeight="1">
       <c r="A49" s="85"/>
       <c r="B49" s="37" t="s">
         <v>199</v>
@@ -12661,7 +12661,7 @@
       <c r="P49" s="35"/>
       <c r="Q49" s="36"/>
     </row>
-    <row r="50" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="50" spans="1:17" ht="36.9" customHeight="1">
       <c r="A50" s="85"/>
       <c r="B50" s="78" t="s">
         <v>202</v>
@@ -12698,7 +12698,7 @@
       <c r="P50" s="35"/>
       <c r="Q50" s="36"/>
     </row>
-    <row r="51" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="51" spans="1:17" ht="36.9" customHeight="1">
       <c r="A51" s="85"/>
       <c r="B51" s="61"/>
       <c r="C51" s="41" t="s">
@@ -12733,7 +12733,7 @@
       <c r="P51" s="35"/>
       <c r="Q51" s="36"/>
     </row>
-    <row r="52" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="52" spans="1:17" ht="36.9" customHeight="1">
       <c r="A52" s="85"/>
       <c r="B52" s="61"/>
       <c r="C52" s="41" t="s">
@@ -12768,7 +12768,7 @@
       <c r="P52" s="35"/>
       <c r="Q52" s="36"/>
     </row>
-    <row r="53" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="53" spans="1:17" ht="36.9" customHeight="1">
       <c r="A53" s="85"/>
       <c r="B53" s="61"/>
       <c r="C53" s="41" t="s">
@@ -12803,7 +12803,7 @@
       <c r="P53" s="35"/>
       <c r="Q53" s="36"/>
     </row>
-    <row r="54" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="54" spans="1:17" ht="36.9" customHeight="1">
       <c r="A54" s="85"/>
       <c r="B54" s="61"/>
       <c r="C54" s="41" t="s">
@@ -12877,7 +12877,7 @@
       <c r="P55" s="35"/>
       <c r="Q55" s="36"/>
     </row>
-    <row r="56" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="56" spans="1:17" ht="36.9" customHeight="1">
       <c r="A56" s="85"/>
       <c r="B56" s="66"/>
       <c r="C56" s="31" t="s">
@@ -12941,7 +12941,7 @@
       <c r="P57" s="35"/>
       <c r="Q57" s="36"/>
     </row>
-    <row r="58" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="58" spans="1:17" ht="36.9" customHeight="1">
       <c r="A58" s="85"/>
       <c r="B58" s="66"/>
       <c r="C58" s="31" t="s">
@@ -12972,7 +12972,7 @@
       <c r="P58" s="35"/>
       <c r="Q58" s="36"/>
     </row>
-    <row r="59" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="59" spans="1:17" ht="36.9" customHeight="1">
       <c r="A59" s="85"/>
       <c r="B59" s="60" t="s">
         <v>43</v>
@@ -13203,7 +13203,7 @@
       <c r="P65" s="35"/>
       <c r="Q65" s="36"/>
     </row>
-    <row r="66" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="66" spans="1:17" ht="36.9" customHeight="1">
       <c r="A66" s="85"/>
       <c r="B66" s="61"/>
       <c r="C66" s="61"/>
@@ -13300,7 +13300,7 @@
       <c r="P68" s="35"/>
       <c r="Q68" s="36"/>
     </row>
-    <row r="69" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="69" spans="1:17" ht="36.9" customHeight="1">
       <c r="A69" s="85"/>
       <c r="B69" s="37" t="s">
         <v>196</v>
@@ -13333,7 +13333,7 @@
       <c r="P69" s="35"/>
       <c r="Q69" s="36"/>
     </row>
-    <row r="70" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="70" spans="1:17" ht="36.9" customHeight="1">
       <c r="A70" s="85"/>
       <c r="B70" s="37" t="s">
         <v>199</v>
@@ -13522,7 +13522,7 @@
       <c r="P76" s="35"/>
       <c r="Q76" s="36"/>
     </row>
-    <row r="77" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="77" spans="1:17" ht="36.9" customHeight="1">
       <c r="A77" s="85"/>
       <c r="B77" s="66"/>
       <c r="C77" s="66"/>
@@ -13547,7 +13547,7 @@
       <c r="P77" s="35"/>
       <c r="Q77" s="36"/>
     </row>
-    <row r="78" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="78" spans="1:17" ht="36.9" customHeight="1">
       <c r="A78" s="85"/>
       <c r="B78" s="66"/>
       <c r="C78" s="66"/>
@@ -13732,7 +13732,7 @@
       <c r="P84" s="35"/>
       <c r="Q84" s="36"/>
     </row>
-    <row r="85" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="85" spans="1:17" ht="36.9" customHeight="1">
       <c r="A85" s="85"/>
       <c r="B85" s="66"/>
       <c r="C85" s="66"/>
@@ -13809,7 +13809,7 @@
       <c r="P87" s="35"/>
       <c r="Q87" s="36"/>
     </row>
-    <row r="88" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="88" spans="1:17" ht="36.9" customHeight="1">
       <c r="A88" s="85"/>
       <c r="B88" s="66"/>
       <c r="C88" s="66"/>
@@ -13859,7 +13859,7 @@
       <c r="P89" s="35"/>
       <c r="Q89" s="36"/>
     </row>
-    <row r="90" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="90" spans="1:17" ht="36.9" customHeight="1">
       <c r="A90" s="85"/>
       <c r="B90" s="66"/>
       <c r="C90" s="65" t="s">
@@ -13911,7 +13911,7 @@
       <c r="P91" s="35"/>
       <c r="Q91" s="36"/>
     </row>
-    <row r="92" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="92" spans="1:17" ht="36.9" customHeight="1">
       <c r="A92" s="85"/>
       <c r="B92" s="66"/>
       <c r="C92" s="65" t="s">
@@ -13963,7 +13963,7 @@
       <c r="P93" s="35"/>
       <c r="Q93" s="36"/>
     </row>
-    <row r="94" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="94" spans="1:17" ht="36.9" customHeight="1">
       <c r="A94" s="85"/>
       <c r="B94" s="60" t="s">
         <v>274</v>
@@ -14040,7 +14040,7 @@
       <c r="P96" s="35"/>
       <c r="Q96" s="36"/>
     </row>
-    <row r="97" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="97" spans="1:17" ht="36.9" customHeight="1">
       <c r="A97" s="85"/>
       <c r="B97" s="60" t="s">
         <v>43</v>
@@ -14312,7 +14312,7 @@
       <c r="P106" s="35"/>
       <c r="Q106" s="36"/>
     </row>
-    <row r="107" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="107" spans="1:17" ht="36.9" customHeight="1">
       <c r="A107" s="85"/>
       <c r="B107" s="37" t="s">
         <v>199</v>
@@ -14676,7 +14676,7 @@
         <v>89.961468749999995</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="22.9" customHeight="1">
+    <row r="119" spans="1:17" ht="22.95" customHeight="1">
       <c r="A119" s="47" t="s">
         <v>362</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="E120" s="48"/>
       <c r="F120" s="49"/>
       <c r="G120" s="49"/>
-      <c r="H120" s="88">
+      <c r="H120" s="87">
         <f>H119+I119+J119+K119+L119+M119+N119+O119+P119+Q119</f>
         <v>126753.05892857144</v>
       </c>
@@ -14761,7 +14761,7 @@
       <c r="E121" s="48"/>
       <c r="F121" s="49"/>
       <c r="G121" s="49"/>
-      <c r="H121" s="88">
+      <c r="H121" s="87">
         <f>H120*1.06</f>
         <v>134358.24246428572</v>
       </c>
@@ -14776,7 +14776,7 @@
       <c r="Q121" s="63"/>
     </row>
     <row r="122" spans="1:17" ht="143.1" customHeight="1">
-      <c r="A122" s="89" t="s">
+      <c r="A122" s="88" t="s">
         <v>365</v>
       </c>
       <c r="B122" s="63"/>
@@ -14890,29 +14890,29 @@
   </sheetPr>
   <dimension ref="A1:IV136"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="H40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.42578125" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="55" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="55" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="55" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="55" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="55" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="55" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="55" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="55" customWidth="1"/>
+    <col min="10" max="11" width="9.5546875" style="55" customWidth="1"/>
     <col min="12" max="14" width="11" style="55" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="55" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="55" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="55" customWidth="1"/>
-    <col min="18" max="256" width="16.42578125" style="55" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" style="55" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" style="55" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" style="55" customWidth="1"/>
+    <col min="18" max="256" width="16.44140625" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12" customHeight="1">
@@ -15016,7 +15016,7 @@
       <c r="P5" s="75"/>
       <c r="Q5" s="76"/>
     </row>
-    <row r="6" spans="1:17" ht="43.15" customHeight="1">
+    <row r="6" spans="1:17" ht="43.2" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -15070,7 +15070,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="51" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="94" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="56" t="s">
@@ -15114,9 +15114,9 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="36"/>
     </row>
-    <row r="8" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="100" t="s">
+    <row r="8" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="108" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="60" t="s">
@@ -15157,9 +15157,9 @@
       <c r="P8" s="35"/>
       <c r="Q8" s="36"/>
     </row>
-    <row r="9" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="97"/>
+    <row r="9" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
       <c r="E9" s="37" t="s">
@@ -15192,8 +15192,8 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="36"/>
     </row>
-    <row r="10" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A10" s="96"/>
+    <row r="10" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A10" s="95"/>
       <c r="B10" s="60" t="s">
         <v>101</v>
       </c>
@@ -15232,7 +15232,7 @@
       <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="96"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="63"/>
       <c r="C11" s="68"/>
       <c r="D11" s="37" t="s">
@@ -15267,7 +15267,7 @@
       <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="1:17" ht="54" customHeight="1">
-      <c r="A12" s="96"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="63"/>
       <c r="C12" s="68"/>
       <c r="D12" s="67" t="s">
@@ -15305,8 +15305,8 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="36"/>
     </row>
-    <row r="13" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A13" s="96"/>
+    <row r="13" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A13" s="95"/>
       <c r="B13" s="63"/>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -15343,7 +15343,7 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="122.1" customHeight="1">
-      <c r="A14" s="96"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="63"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
@@ -15380,7 +15380,7 @@
       <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="1:17" ht="105" customHeight="1">
-      <c r="A15" s="96"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="63"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -15416,8 +15416,8 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="36"/>
     </row>
-    <row r="16" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A16" s="96"/>
+    <row r="16" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A16" s="95"/>
       <c r="B16" s="63"/>
       <c r="C16" s="68"/>
       <c r="D16" s="69"/>
@@ -15451,8 +15451,8 @@
       <c r="P16" s="35"/>
       <c r="Q16" s="36"/>
     </row>
-    <row r="17" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A17" s="95"/>
       <c r="B17" s="63"/>
       <c r="C17" s="68"/>
       <c r="D17" s="37" t="s">
@@ -15487,7 +15487,7 @@
       <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="96"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="63"/>
       <c r="C18" s="68"/>
       <c r="D18" s="37" t="s">
@@ -15520,7 +15520,7 @@
       <c r="Q18" s="36"/>
     </row>
     <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="96"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="63"/>
       <c r="C19" s="68"/>
       <c r="D19" s="37" t="s">
@@ -15555,7 +15555,7 @@
       <c r="Q19" s="36"/>
     </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="96"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="63"/>
       <c r="C20" s="68"/>
       <c r="D20" s="67" t="s">
@@ -15592,7 +15592,7 @@
       <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="96"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="63"/>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -15613,7 +15613,7 @@
       <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="96"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="63"/>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -15634,7 +15634,7 @@
       <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="96"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="63"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -15655,7 +15655,7 @@
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="96"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="63"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -15675,8 +15675,8 @@
       <c r="P24" s="35"/>
       <c r="Q24" s="36"/>
     </row>
-    <row r="25" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A25" s="96"/>
+    <row r="25" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A25" s="95"/>
       <c r="B25" s="63"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -15699,7 +15699,7 @@
       <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="96"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="63"/>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
@@ -15720,7 +15720,7 @@
       <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="96"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="63"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
@@ -15741,7 +15741,7 @@
       <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="96"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="63"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -15761,8 +15761,8 @@
       <c r="P28" s="35"/>
       <c r="Q28" s="36"/>
     </row>
-    <row r="29" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A29" s="96"/>
+    <row r="29" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A29" s="95"/>
       <c r="B29" s="63"/>
       <c r="C29" s="69"/>
       <c r="D29" s="69"/>
@@ -15783,7 +15783,7 @@
       <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="35.1" customHeight="1">
-      <c r="A30" s="96"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="63"/>
       <c r="C30" s="63"/>
       <c r="D30" s="70" t="s">
@@ -15818,7 +15818,7 @@
       <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" ht="51" customHeight="1">
-      <c r="A31" s="96"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
       <c r="D31" s="71"/>
@@ -15847,7 +15847,7 @@
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:17" ht="35.1" customHeight="1">
-      <c r="A32" s="96"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
       <c r="D32" s="71"/>
@@ -15876,7 +15876,7 @@
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="35.1" customHeight="1">
-      <c r="A33" s="96"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="63"/>
       <c r="C33" s="63"/>
       <c r="D33" s="71"/>
@@ -15904,8 +15904,8 @@
       <c r="P33" s="35"/>
       <c r="Q33" s="36"/>
     </row>
-    <row r="34" spans="1:17" ht="66.95" customHeight="1">
-      <c r="A34" s="96"/>
+    <row r="34" spans="1:17" ht="66.900000000000006" customHeight="1">
+      <c r="A34" s="95"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
       <c r="D34" s="71"/>
@@ -15934,7 +15934,7 @@
       <c r="Q34" s="36"/>
     </row>
     <row r="35" spans="1:17" ht="147" customHeight="1">
-      <c r="A35" s="96"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
       <c r="D35" s="72"/>
@@ -15967,7 +15967,7 @@
       <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" ht="35.1" customHeight="1">
-      <c r="A36" s="96"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
       <c r="D36" s="70" t="s">
@@ -16002,7 +16002,7 @@
       <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" ht="51" customHeight="1">
-      <c r="A37" s="96"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63"/>
       <c r="D37" s="71"/>
@@ -16035,7 +16035,7 @@
       <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:17" ht="35.1" customHeight="1">
-      <c r="A38" s="96"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="63"/>
       <c r="C38" s="63"/>
       <c r="D38" s="71"/>
@@ -16068,7 +16068,7 @@
       <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:17" ht="35.1" customHeight="1">
-      <c r="A39" s="96"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
       <c r="D39" s="71"/>
@@ -16100,8 +16100,8 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="36"/>
     </row>
-    <row r="40" spans="1:17" ht="66.95" customHeight="1">
-      <c r="A40" s="96"/>
+    <row r="40" spans="1:17" ht="66.900000000000006" customHeight="1">
+      <c r="A40" s="95"/>
       <c r="B40" s="63"/>
       <c r="C40" s="63"/>
       <c r="D40" s="71"/>
@@ -16134,7 +16134,7 @@
       <c r="Q40" s="36"/>
     </row>
     <row r="41" spans="1:17" ht="147" customHeight="1">
-      <c r="A41" s="96"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
       <c r="D41" s="72"/>
@@ -16170,8 +16170,8 @@
       <c r="P41" s="35"/>
       <c r="Q41" s="36"/>
     </row>
-    <row r="42" spans="1:17" ht="66.95" customHeight="1">
-      <c r="A42" s="96"/>
+    <row r="42" spans="1:17" ht="66.900000000000006" customHeight="1">
+      <c r="A42" s="95"/>
       <c r="B42" s="60" t="s">
         <v>170</v>
       </c>
@@ -16208,7 +16208,7 @@
       <c r="Q42" s="36"/>
     </row>
     <row r="43" spans="1:17" ht="51" customHeight="1">
-      <c r="A43" s="96"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="63"/>
       <c r="C43" s="71"/>
       <c r="D43" s="39" t="s">
@@ -16241,7 +16241,7 @@
       <c r="Q43" s="36"/>
     </row>
     <row r="44" spans="1:17" ht="83.1" customHeight="1">
-      <c r="A44" s="96"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="63"/>
       <c r="C44" s="72"/>
       <c r="D44" s="39" t="s">
@@ -16274,7 +16274,7 @@
       <c r="Q44" s="36"/>
     </row>
     <row r="45" spans="1:17" ht="54" customHeight="1">
-      <c r="A45" s="96"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="63"/>
       <c r="C45" s="37" t="s">
         <v>175</v>
@@ -16308,8 +16308,8 @@
       <c r="P45" s="35"/>
       <c r="Q45" s="36"/>
     </row>
-    <row r="46" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A46" s="96"/>
+    <row r="46" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A46" s="95"/>
       <c r="B46" s="63"/>
       <c r="C46" s="60" t="s">
         <v>177</v>
@@ -16346,7 +16346,7 @@
       <c r="Q46" s="36"/>
     </row>
     <row r="47" spans="1:17" ht="54" customHeight="1">
-      <c r="A47" s="96"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="63"/>
       <c r="C47" s="61"/>
       <c r="D47" s="37" t="s">
@@ -16381,7 +16381,7 @@
       <c r="Q47" s="36"/>
     </row>
     <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="96"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="63"/>
       <c r="C48" s="61"/>
       <c r="D48" s="60" t="s">
@@ -16416,7 +16416,7 @@
       <c r="Q48" s="36"/>
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="96"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="63"/>
       <c r="C49" s="61"/>
       <c r="D49" s="61"/>
@@ -16450,8 +16450,8 @@
       <c r="P49" s="35"/>
       <c r="Q49" s="36"/>
     </row>
-    <row r="50" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A50" s="96"/>
+    <row r="50" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A50" s="95"/>
       <c r="B50" s="63"/>
       <c r="C50" s="61"/>
       <c r="D50" s="61"/>
@@ -16486,7 +16486,7 @@
       <c r="Q50" s="36"/>
     </row>
     <row r="51" spans="1:17" ht="105" customHeight="1">
-      <c r="A51" s="96"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="63"/>
       <c r="C51" s="61"/>
       <c r="D51" s="61"/>
@@ -16522,8 +16522,8 @@
       <c r="P51" s="35"/>
       <c r="Q51" s="36"/>
     </row>
-    <row r="52" spans="1:17" ht="87.95" customHeight="1">
-      <c r="A52" s="96"/>
+    <row r="52" spans="1:17" ht="87.9" customHeight="1">
+      <c r="A52" s="95"/>
       <c r="B52" s="63"/>
       <c r="C52" s="37" t="s">
         <v>181</v>
@@ -16558,7 +16558,7 @@
       <c r="Q52" s="36"/>
     </row>
     <row r="53" spans="1:17" ht="71.099999999999994" customHeight="1">
-      <c r="A53" s="96"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="60" t="s">
         <v>183</v>
       </c>
@@ -16598,8 +16598,8 @@
       <c r="P53" s="35"/>
       <c r="Q53" s="36"/>
     </row>
-    <row r="54" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A54" s="95"/>
       <c r="B54" s="61"/>
       <c r="C54" s="61"/>
       <c r="D54" s="37" t="s">
@@ -16634,7 +16634,7 @@
       <c r="Q54" s="36"/>
     </row>
     <row r="55" spans="1:17" ht="71.099999999999994" customHeight="1">
-      <c r="A55" s="96"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="61"/>
       <c r="C55" s="37" t="s">
         <v>190</v>
@@ -16668,8 +16668,8 @@
       <c r="P55" s="35"/>
       <c r="Q55" s="36"/>
     </row>
-    <row r="56" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A56" s="97"/>
+    <row r="56" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A56" s="96"/>
       <c r="B56" s="37" t="s">
         <v>196</v>
       </c>
@@ -16705,8 +16705,8 @@
       <c r="P56" s="35"/>
       <c r="Q56" s="36"/>
     </row>
-    <row r="57" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A57" s="95" t="s">
+    <row r="57" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A57" s="94" t="s">
         <v>211</v>
       </c>
       <c r="B57" s="60" t="s">
@@ -16745,7 +16745,7 @@
       <c r="Q57" s="36"/>
     </row>
     <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="96"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="61"/>
       <c r="C58" s="61"/>
       <c r="D58" s="37" t="s">
@@ -16776,7 +16776,7 @@
       <c r="Q58" s="36"/>
     </row>
     <row r="59" spans="1:17" ht="54" customHeight="1">
-      <c r="A59" s="96"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="61"/>
       <c r="C59" s="61"/>
       <c r="D59" s="37" t="s">
@@ -16807,7 +16807,7 @@
       <c r="Q59" s="36"/>
     </row>
     <row r="60" spans="1:17" ht="71.099999999999994" customHeight="1">
-      <c r="A60" s="96"/>
+      <c r="A60" s="95"/>
       <c r="B60" s="37" t="s">
         <v>224</v>
       </c>
@@ -16839,8 +16839,8 @@
       <c r="P60" s="35"/>
       <c r="Q60" s="36"/>
     </row>
-    <row r="61" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A61" s="97"/>
+    <row r="61" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A61" s="96"/>
       <c r="B61" s="37" t="s">
         <v>196</v>
       </c>
@@ -16901,7 +16901,7 @@
       <c r="P62" s="35"/>
       <c r="Q62" s="36"/>
     </row>
-    <row r="63" spans="1:17" ht="36.950000000000003" customHeight="1">
+    <row r="63" spans="1:17" ht="36.9" customHeight="1">
       <c r="A63" s="85"/>
       <c r="B63" s="37" t="s">
         <v>196</v>
@@ -16929,10 +16929,10 @@
       <c r="Q63" s="36"/>
     </row>
     <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="97" t="s">
         <v>286</v>
       </c>
       <c r="C64" s="67" t="s">
@@ -16949,7 +16949,7 @@
       <c r="H64" s="62">
         <v>1.25</v>
       </c>
-      <c r="I64" s="104">
+      <c r="I64" s="105">
         <v>1.25</v>
       </c>
       <c r="J64" s="57">
@@ -16974,8 +16974,8 @@
       <c r="Q64" s="36"/>
     </row>
     <row r="65" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="93"/>
-      <c r="B65" s="93"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="68"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -16984,7 +16984,7 @@
       </c>
       <c r="G65" s="68"/>
       <c r="H65" s="73"/>
-      <c r="I65" s="105"/>
+      <c r="I65" s="106"/>
       <c r="J65" s="58"/>
       <c r="K65" s="80"/>
       <c r="L65" s="33">
@@ -17003,8 +17003,8 @@
       <c r="Q65" s="36"/>
     </row>
     <row r="66" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="93"/>
-      <c r="B66" s="93"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="98"/>
       <c r="C66" s="68"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="G66" s="68"/>
       <c r="H66" s="73"/>
-      <c r="I66" s="105"/>
+      <c r="I66" s="106"/>
       <c r="J66" s="58"/>
       <c r="K66" s="80"/>
       <c r="L66" s="33">
@@ -17031,9 +17031,9 @@
       <c r="P66" s="35"/>
       <c r="Q66" s="36"/>
     </row>
-    <row r="67" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A67" s="93"/>
-      <c r="B67" s="93"/>
+    <row r="67" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A67" s="98"/>
+      <c r="B67" s="98"/>
       <c r="C67" s="68"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -17042,7 +17042,7 @@
       </c>
       <c r="G67" s="68"/>
       <c r="H67" s="73"/>
-      <c r="I67" s="105"/>
+      <c r="I67" s="106"/>
       <c r="J67" s="58"/>
       <c r="K67" s="80"/>
       <c r="L67" s="33">
@@ -17061,8 +17061,8 @@
       <c r="Q67" s="36"/>
     </row>
     <row r="68" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="93"/>
-      <c r="B68" s="93"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="98"/>
       <c r="C68" s="68"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="G68" s="68"/>
       <c r="H68" s="73"/>
-      <c r="I68" s="105"/>
+      <c r="I68" s="106"/>
       <c r="J68" s="58"/>
       <c r="K68" s="80"/>
       <c r="L68" s="33">
@@ -17090,8 +17090,8 @@
       <c r="Q68" s="36"/>
     </row>
     <row r="69" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="93"/>
-      <c r="B69" s="93"/>
+      <c r="A69" s="98"/>
+      <c r="B69" s="98"/>
       <c r="C69" s="68"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -17100,7 +17100,7 @@
       </c>
       <c r="G69" s="68"/>
       <c r="H69" s="73"/>
-      <c r="I69" s="105"/>
+      <c r="I69" s="106"/>
       <c r="J69" s="58"/>
       <c r="K69" s="80"/>
       <c r="L69" s="33">
@@ -17119,8 +17119,8 @@
       <c r="Q69" s="36"/>
     </row>
     <row r="70" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="93"/>
-      <c r="B70" s="93"/>
+      <c r="A70" s="98"/>
+      <c r="B70" s="98"/>
       <c r="C70" s="68"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -17129,7 +17129,7 @@
       </c>
       <c r="G70" s="68"/>
       <c r="H70" s="73"/>
-      <c r="I70" s="105"/>
+      <c r="I70" s="106"/>
       <c r="J70" s="58"/>
       <c r="K70" s="80"/>
       <c r="L70" s="33">
@@ -17148,8 +17148,8 @@
       <c r="Q70" s="36"/>
     </row>
     <row r="71" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="93"/>
-      <c r="B71" s="93"/>
+      <c r="A71" s="98"/>
+      <c r="B71" s="98"/>
       <c r="C71" s="68"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="G71" s="68"/>
       <c r="H71" s="73"/>
-      <c r="I71" s="105"/>
+      <c r="I71" s="106"/>
       <c r="J71" s="58"/>
       <c r="K71" s="80"/>
       <c r="L71" s="33">
@@ -17177,8 +17177,8 @@
       <c r="Q71" s="36"/>
     </row>
     <row r="72" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="93"/>
-      <c r="B72" s="93"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="98"/>
       <c r="C72" s="68"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -17187,7 +17187,7 @@
       </c>
       <c r="G72" s="68"/>
       <c r="H72" s="73"/>
-      <c r="I72" s="105"/>
+      <c r="I72" s="106"/>
       <c r="J72" s="58"/>
       <c r="K72" s="80"/>
       <c r="L72" s="33">
@@ -17206,8 +17206,8 @@
       <c r="Q72" s="36"/>
     </row>
     <row r="73" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="93"/>
-      <c r="B73" s="93"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="98"/>
       <c r="C73" s="68"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="G73" s="68"/>
       <c r="H73" s="73"/>
-      <c r="I73" s="105"/>
+      <c r="I73" s="106"/>
       <c r="J73" s="58"/>
       <c r="K73" s="80"/>
       <c r="L73" s="33">
@@ -17235,8 +17235,8 @@
       <c r="Q73" s="36"/>
     </row>
     <row r="74" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="93"/>
-      <c r="B74" s="93"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="98"/>
       <c r="C74" s="68"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="G74" s="68"/>
       <c r="H74" s="73"/>
-      <c r="I74" s="105"/>
+      <c r="I74" s="106"/>
       <c r="J74" s="58"/>
       <c r="K74" s="80"/>
       <c r="L74" s="33">
@@ -17264,8 +17264,8 @@
       <c r="Q74" s="36"/>
     </row>
     <row r="75" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="93"/>
-      <c r="B75" s="93"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="98"/>
       <c r="C75" s="68"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -17274,7 +17274,7 @@
       </c>
       <c r="G75" s="68"/>
       <c r="H75" s="73"/>
-      <c r="I75" s="105"/>
+      <c r="I75" s="106"/>
       <c r="J75" s="58"/>
       <c r="K75" s="80"/>
       <c r="L75" s="33">
@@ -17293,8 +17293,8 @@
       <c r="Q75" s="36"/>
     </row>
     <row r="76" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="93"/>
-      <c r="B76" s="93"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="98"/>
       <c r="C76" s="68"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="G76" s="68"/>
       <c r="H76" s="73"/>
-      <c r="I76" s="105"/>
+      <c r="I76" s="106"/>
       <c r="J76" s="58"/>
       <c r="K76" s="80"/>
       <c r="L76" s="33">
@@ -17321,9 +17321,9 @@
       <c r="P76" s="35"/>
       <c r="Q76" s="36"/>
     </row>
-    <row r="77" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A77" s="93"/>
-      <c r="B77" s="93"/>
+    <row r="77" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A77" s="98"/>
+      <c r="B77" s="98"/>
       <c r="C77" s="69"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -17332,7 +17332,7 @@
       </c>
       <c r="G77" s="68"/>
       <c r="H77" s="73"/>
-      <c r="I77" s="105"/>
+      <c r="I77" s="106"/>
       <c r="J77" s="59"/>
       <c r="K77" s="81"/>
       <c r="L77" s="33">
@@ -17350,9 +17350,9 @@
       <c r="P77" s="35"/>
       <c r="Q77" s="36"/>
     </row>
-    <row r="78" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A78" s="93"/>
-      <c r="B78" s="93"/>
+    <row r="78" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A78" s="98"/>
+      <c r="B78" s="98"/>
       <c r="C78" s="67" t="s">
         <v>301</v>
       </c>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="G78" s="68"/>
       <c r="H78" s="73"/>
-      <c r="I78" s="105"/>
+      <c r="I78" s="106"/>
       <c r="J78" s="57">
         <v>0.5</v>
       </c>
@@ -17386,8 +17386,8 @@
       <c r="Q78" s="36"/>
     </row>
     <row r="79" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="93"/>
-      <c r="B79" s="93"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="98"/>
       <c r="C79" s="68"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -17396,7 +17396,7 @@
       </c>
       <c r="G79" s="68"/>
       <c r="H79" s="73"/>
-      <c r="I79" s="105"/>
+      <c r="I79" s="106"/>
       <c r="J79" s="58"/>
       <c r="K79" s="80"/>
       <c r="L79" s="33">
@@ -17415,8 +17415,8 @@
       <c r="Q79" s="36"/>
     </row>
     <row r="80" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="93"/>
-      <c r="B80" s="93"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="98"/>
       <c r="C80" s="68"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="G80" s="68"/>
       <c r="H80" s="73"/>
-      <c r="I80" s="105"/>
+      <c r="I80" s="106"/>
       <c r="J80" s="58"/>
       <c r="K80" s="80"/>
       <c r="L80" s="33">
@@ -17444,8 +17444,8 @@
       <c r="Q80" s="36"/>
     </row>
     <row r="81" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="93"/>
-      <c r="B81" s="93"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="68"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -17454,7 +17454,7 @@
       </c>
       <c r="G81" s="68"/>
       <c r="H81" s="73"/>
-      <c r="I81" s="105"/>
+      <c r="I81" s="106"/>
       <c r="J81" s="58"/>
       <c r="K81" s="80"/>
       <c r="L81" s="33">
@@ -17473,8 +17473,8 @@
       <c r="Q81" s="36"/>
     </row>
     <row r="82" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="93"/>
-      <c r="B82" s="93"/>
+      <c r="A82" s="98"/>
+      <c r="B82" s="98"/>
       <c r="C82" s="68"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="G82" s="68"/>
       <c r="H82" s="73"/>
-      <c r="I82" s="105"/>
+      <c r="I82" s="106"/>
       <c r="J82" s="58"/>
       <c r="K82" s="80"/>
       <c r="L82" s="33">
@@ -17502,8 +17502,8 @@
       <c r="Q82" s="36"/>
     </row>
     <row r="83" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="93"/>
-      <c r="B83" s="93"/>
+      <c r="A83" s="98"/>
+      <c r="B83" s="98"/>
       <c r="C83" s="68"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
@@ -17512,7 +17512,7 @@
       </c>
       <c r="G83" s="68"/>
       <c r="H83" s="73"/>
-      <c r="I83" s="105"/>
+      <c r="I83" s="106"/>
       <c r="J83" s="58"/>
       <c r="K83" s="80"/>
       <c r="L83" s="33">
@@ -17531,8 +17531,8 @@
       <c r="Q83" s="36"/>
     </row>
     <row r="84" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="93"/>
-      <c r="B84" s="93"/>
+      <c r="A84" s="98"/>
+      <c r="B84" s="98"/>
       <c r="C84" s="68"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="G84" s="68"/>
       <c r="H84" s="73"/>
-      <c r="I84" s="105"/>
+      <c r="I84" s="106"/>
       <c r="J84" s="58"/>
       <c r="K84" s="80"/>
       <c r="L84" s="33">
@@ -17560,8 +17560,8 @@
       <c r="Q84" s="36"/>
     </row>
     <row r="85" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="93"/>
-      <c r="B85" s="93"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="98"/>
       <c r="C85" s="68"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="G85" s="68"/>
       <c r="H85" s="73"/>
-      <c r="I85" s="105"/>
+      <c r="I85" s="106"/>
       <c r="J85" s="58"/>
       <c r="K85" s="80"/>
       <c r="L85" s="33">
@@ -17589,8 +17589,8 @@
       <c r="Q85" s="36"/>
     </row>
     <row r="86" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="93"/>
-      <c r="B86" s="93"/>
+      <c r="A86" s="98"/>
+      <c r="B86" s="98"/>
       <c r="C86" s="68"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
@@ -17599,7 +17599,7 @@
       </c>
       <c r="G86" s="68"/>
       <c r="H86" s="73"/>
-      <c r="I86" s="105"/>
+      <c r="I86" s="106"/>
       <c r="J86" s="58"/>
       <c r="K86" s="80"/>
       <c r="L86" s="33">
@@ -17618,8 +17618,8 @@
       <c r="Q86" s="36"/>
     </row>
     <row r="87" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="93"/>
-      <c r="B87" s="93"/>
+      <c r="A87" s="98"/>
+      <c r="B87" s="98"/>
       <c r="C87" s="68"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="G87" s="68"/>
       <c r="H87" s="73"/>
-      <c r="I87" s="105"/>
+      <c r="I87" s="106"/>
       <c r="J87" s="58"/>
       <c r="K87" s="80"/>
       <c r="L87" s="33">
@@ -17646,9 +17646,9 @@
       <c r="P87" s="35"/>
       <c r="Q87" s="36"/>
     </row>
-    <row r="88" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A88" s="93"/>
-      <c r="B88" s="93"/>
+    <row r="88" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A88" s="98"/>
+      <c r="B88" s="98"/>
       <c r="C88" s="69"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="G88" s="68"/>
       <c r="H88" s="73"/>
-      <c r="I88" s="105"/>
+      <c r="I88" s="106"/>
       <c r="J88" s="59"/>
       <c r="K88" s="81"/>
       <c r="L88" s="33">
@@ -17676,8 +17676,8 @@
       <c r="Q88" s="36"/>
     </row>
     <row r="89" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="93"/>
-      <c r="B89" s="93"/>
+      <c r="A89" s="98"/>
+      <c r="B89" s="98"/>
       <c r="C89" s="67" t="s">
         <v>303</v>
       </c>
@@ -17688,7 +17688,7 @@
       </c>
       <c r="G89" s="68"/>
       <c r="H89" s="73"/>
-      <c r="I89" s="105"/>
+      <c r="I89" s="106"/>
       <c r="J89" s="57">
         <v>0.5</v>
       </c>
@@ -17711,8 +17711,8 @@
       <c r="Q89" s="36"/>
     </row>
     <row r="90" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="93"/>
-      <c r="B90" s="93"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="98"/>
       <c r="C90" s="68"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -17721,7 +17721,7 @@
       </c>
       <c r="G90" s="68"/>
       <c r="H90" s="73"/>
-      <c r="I90" s="105"/>
+      <c r="I90" s="106"/>
       <c r="J90" s="58"/>
       <c r="K90" s="80"/>
       <c r="L90" s="33">
@@ -17740,8 +17740,8 @@
       <c r="Q90" s="36"/>
     </row>
     <row r="91" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="93"/>
-      <c r="B91" s="93"/>
+      <c r="A91" s="98"/>
+      <c r="B91" s="98"/>
       <c r="C91" s="68"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
@@ -17750,7 +17750,7 @@
       </c>
       <c r="G91" s="68"/>
       <c r="H91" s="73"/>
-      <c r="I91" s="105"/>
+      <c r="I91" s="106"/>
       <c r="J91" s="58"/>
       <c r="K91" s="80"/>
       <c r="L91" s="33">
@@ -17769,8 +17769,8 @@
       <c r="Q91" s="36"/>
     </row>
     <row r="92" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="93"/>
-      <c r="B92" s="93"/>
+      <c r="A92" s="98"/>
+      <c r="B92" s="98"/>
       <c r="C92" s="68"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
@@ -17779,7 +17779,7 @@
       </c>
       <c r="G92" s="68"/>
       <c r="H92" s="73"/>
-      <c r="I92" s="105"/>
+      <c r="I92" s="106"/>
       <c r="J92" s="58"/>
       <c r="K92" s="80"/>
       <c r="L92" s="33">
@@ -17798,8 +17798,8 @@
       <c r="Q92" s="36"/>
     </row>
     <row r="93" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="93"/>
-      <c r="B93" s="93"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="98"/>
       <c r="C93" s="68"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
@@ -17808,7 +17808,7 @@
       </c>
       <c r="G93" s="68"/>
       <c r="H93" s="73"/>
-      <c r="I93" s="105"/>
+      <c r="I93" s="106"/>
       <c r="J93" s="58"/>
       <c r="K93" s="80"/>
       <c r="L93" s="33">
@@ -17827,8 +17827,8 @@
       <c r="Q93" s="36"/>
     </row>
     <row r="94" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="93"/>
-      <c r="B94" s="93"/>
+      <c r="A94" s="98"/>
+      <c r="B94" s="98"/>
       <c r="C94" s="68"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="G94" s="68"/>
       <c r="H94" s="73"/>
-      <c r="I94" s="105"/>
+      <c r="I94" s="106"/>
       <c r="J94" s="58"/>
       <c r="K94" s="80"/>
       <c r="L94" s="33">
@@ -17856,8 +17856,8 @@
       <c r="Q94" s="36"/>
     </row>
     <row r="95" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="93"/>
-      <c r="B95" s="93"/>
+      <c r="A95" s="98"/>
+      <c r="B95" s="98"/>
       <c r="C95" s="68"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="G95" s="68"/>
       <c r="H95" s="73"/>
-      <c r="I95" s="105"/>
+      <c r="I95" s="106"/>
       <c r="J95" s="58"/>
       <c r="K95" s="80"/>
       <c r="L95" s="33">
@@ -17885,8 +17885,8 @@
       <c r="Q95" s="36"/>
     </row>
     <row r="96" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="93"/>
-      <c r="B96" s="93"/>
+      <c r="A96" s="98"/>
+      <c r="B96" s="98"/>
       <c r="C96" s="68"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35"/>
@@ -17895,7 +17895,7 @@
       </c>
       <c r="G96" s="68"/>
       <c r="H96" s="73"/>
-      <c r="I96" s="105"/>
+      <c r="I96" s="106"/>
       <c r="J96" s="58"/>
       <c r="K96" s="80"/>
       <c r="L96" s="33">
@@ -17914,8 +17914,8 @@
       <c r="Q96" s="36"/>
     </row>
     <row r="97" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="93"/>
-      <c r="B97" s="93"/>
+      <c r="A97" s="98"/>
+      <c r="B97" s="98"/>
       <c r="C97" s="69"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35"/>
@@ -17924,7 +17924,7 @@
       </c>
       <c r="G97" s="69"/>
       <c r="H97" s="73"/>
-      <c r="I97" s="105"/>
+      <c r="I97" s="106"/>
       <c r="J97" s="59"/>
       <c r="K97" s="81"/>
       <c r="L97" s="33">
@@ -17943,8 +17943,8 @@
       <c r="Q97" s="36"/>
     </row>
     <row r="98" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="93"/>
-      <c r="B98" s="93"/>
+      <c r="A98" s="98"/>
+      <c r="B98" s="98"/>
       <c r="C98" s="67" t="s">
         <v>313</v>
       </c>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="G98" s="35"/>
       <c r="H98" s="73"/>
-      <c r="I98" s="105"/>
+      <c r="I98" s="106"/>
       <c r="J98" s="57">
         <v>0.5</v>
       </c>
@@ -17978,8 +17978,8 @@
       <c r="Q98" s="36"/>
     </row>
     <row r="99" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="93"/>
-      <c r="B99" s="93"/>
+      <c r="A99" s="98"/>
+      <c r="B99" s="98"/>
       <c r="C99" s="68"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G99" s="35"/>
       <c r="H99" s="73"/>
-      <c r="I99" s="105"/>
+      <c r="I99" s="106"/>
       <c r="J99" s="58"/>
       <c r="K99" s="80"/>
       <c r="L99" s="33">
@@ -18007,8 +18007,8 @@
       <c r="Q99" s="36"/>
     </row>
     <row r="100" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="93"/>
-      <c r="B100" s="93"/>
+      <c r="A100" s="98"/>
+      <c r="B100" s="98"/>
       <c r="C100" s="68"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
@@ -18017,7 +18017,7 @@
       </c>
       <c r="G100" s="35"/>
       <c r="H100" s="73"/>
-      <c r="I100" s="105"/>
+      <c r="I100" s="106"/>
       <c r="J100" s="58"/>
       <c r="K100" s="80"/>
       <c r="L100" s="33">
@@ -18036,8 +18036,8 @@
       <c r="Q100" s="36"/>
     </row>
     <row r="101" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="93"/>
-      <c r="B101" s="93"/>
+      <c r="A101" s="98"/>
+      <c r="B101" s="98"/>
       <c r="C101" s="68"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35"/>
@@ -18046,7 +18046,7 @@
       </c>
       <c r="G101" s="35"/>
       <c r="H101" s="73"/>
-      <c r="I101" s="105"/>
+      <c r="I101" s="106"/>
       <c r="J101" s="58"/>
       <c r="K101" s="80"/>
       <c r="L101" s="33">
@@ -18065,8 +18065,8 @@
       <c r="Q101" s="36"/>
     </row>
     <row r="102" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="93"/>
-      <c r="B102" s="93"/>
+      <c r="A102" s="98"/>
+      <c r="B102" s="98"/>
       <c r="C102" s="68"/>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
@@ -18075,7 +18075,7 @@
       </c>
       <c r="G102" s="35"/>
       <c r="H102" s="73"/>
-      <c r="I102" s="105"/>
+      <c r="I102" s="106"/>
       <c r="J102" s="58"/>
       <c r="K102" s="80"/>
       <c r="L102" s="33">
@@ -18094,8 +18094,8 @@
       <c r="Q102" s="36"/>
     </row>
     <row r="103" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="93"/>
-      <c r="B103" s="93"/>
+      <c r="A103" s="98"/>
+      <c r="B103" s="98"/>
       <c r="C103" s="68"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35"/>
@@ -18104,7 +18104,7 @@
       </c>
       <c r="G103" s="35"/>
       <c r="H103" s="73"/>
-      <c r="I103" s="105"/>
+      <c r="I103" s="106"/>
       <c r="J103" s="58"/>
       <c r="K103" s="80"/>
       <c r="L103" s="33">
@@ -18123,8 +18123,8 @@
       <c r="Q103" s="36"/>
     </row>
     <row r="104" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="93"/>
-      <c r="B104" s="93"/>
+      <c r="A104" s="98"/>
+      <c r="B104" s="98"/>
       <c r="C104" s="68"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35"/>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="G104" s="35"/>
       <c r="H104" s="73"/>
-      <c r="I104" s="105"/>
+      <c r="I104" s="106"/>
       <c r="J104" s="58"/>
       <c r="K104" s="80"/>
       <c r="L104" s="33">
@@ -18152,8 +18152,8 @@
       <c r="Q104" s="36"/>
     </row>
     <row r="105" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="93"/>
-      <c r="B105" s="93"/>
+      <c r="A105" s="98"/>
+      <c r="B105" s="98"/>
       <c r="C105" s="68"/>
       <c r="D105" s="35"/>
       <c r="E105" s="35"/>
@@ -18162,7 +18162,7 @@
       </c>
       <c r="G105" s="35"/>
       <c r="H105" s="73"/>
-      <c r="I105" s="105"/>
+      <c r="I105" s="106"/>
       <c r="J105" s="58"/>
       <c r="K105" s="80"/>
       <c r="L105" s="33">
@@ -18181,8 +18181,8 @@
       <c r="Q105" s="36"/>
     </row>
     <row r="106" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="93"/>
-      <c r="B106" s="93"/>
+      <c r="A106" s="98"/>
+      <c r="B106" s="98"/>
       <c r="C106" s="68"/>
       <c r="D106" s="35"/>
       <c r="E106" s="35"/>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="G106" s="35"/>
       <c r="H106" s="73"/>
-      <c r="I106" s="105"/>
+      <c r="I106" s="106"/>
       <c r="J106" s="58"/>
       <c r="K106" s="80"/>
       <c r="L106" s="33">
@@ -18210,8 +18210,8 @@
       <c r="Q106" s="36"/>
     </row>
     <row r="107" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="93"/>
-      <c r="B107" s="93"/>
+      <c r="A107" s="98"/>
+      <c r="B107" s="98"/>
       <c r="C107" s="68"/>
       <c r="D107" s="35"/>
       <c r="E107" s="35"/>
@@ -18220,7 +18220,7 @@
       </c>
       <c r="G107" s="35"/>
       <c r="H107" s="73"/>
-      <c r="I107" s="105"/>
+      <c r="I107" s="106"/>
       <c r="J107" s="58"/>
       <c r="K107" s="80"/>
       <c r="L107" s="33">
@@ -18239,8 +18239,8 @@
       <c r="Q107" s="36"/>
     </row>
     <row r="108" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="93"/>
-      <c r="B108" s="93"/>
+      <c r="A108" s="98"/>
+      <c r="B108" s="98"/>
       <c r="C108" s="68"/>
       <c r="D108" s="35"/>
       <c r="E108" s="35"/>
@@ -18249,7 +18249,7 @@
       </c>
       <c r="G108" s="35"/>
       <c r="H108" s="73"/>
-      <c r="I108" s="105"/>
+      <c r="I108" s="106"/>
       <c r="J108" s="58"/>
       <c r="K108" s="80"/>
       <c r="L108" s="33">
@@ -18268,8 +18268,8 @@
       <c r="Q108" s="36"/>
     </row>
     <row r="109" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="93"/>
-      <c r="B109" s="93"/>
+      <c r="A109" s="98"/>
+      <c r="B109" s="98"/>
       <c r="C109" s="68"/>
       <c r="D109" s="35"/>
       <c r="E109" s="35"/>
@@ -18278,7 +18278,7 @@
       </c>
       <c r="G109" s="35"/>
       <c r="H109" s="73"/>
-      <c r="I109" s="105"/>
+      <c r="I109" s="106"/>
       <c r="J109" s="58"/>
       <c r="K109" s="80"/>
       <c r="L109" s="33">
@@ -18297,8 +18297,8 @@
       <c r="Q109" s="36"/>
     </row>
     <row r="110" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="93"/>
-      <c r="B110" s="93"/>
+      <c r="A110" s="98"/>
+      <c r="B110" s="98"/>
       <c r="C110" s="68"/>
       <c r="D110" s="35"/>
       <c r="E110" s="35"/>
@@ -18307,7 +18307,7 @@
       </c>
       <c r="G110" s="35"/>
       <c r="H110" s="73"/>
-      <c r="I110" s="105"/>
+      <c r="I110" s="106"/>
       <c r="J110" s="58"/>
       <c r="K110" s="80"/>
       <c r="L110" s="33">
@@ -18326,8 +18326,8 @@
       <c r="Q110" s="36"/>
     </row>
     <row r="111" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="93"/>
-      <c r="B111" s="93"/>
+      <c r="A111" s="98"/>
+      <c r="B111" s="98"/>
       <c r="C111" s="68"/>
       <c r="D111" s="35"/>
       <c r="E111" s="35"/>
@@ -18336,7 +18336,7 @@
       </c>
       <c r="G111" s="35"/>
       <c r="H111" s="73"/>
-      <c r="I111" s="105"/>
+      <c r="I111" s="106"/>
       <c r="J111" s="58"/>
       <c r="K111" s="80"/>
       <c r="L111" s="33">
@@ -18354,9 +18354,9 @@
       <c r="P111" s="35"/>
       <c r="Q111" s="36"/>
     </row>
-    <row r="112" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A112" s="93"/>
-      <c r="B112" s="93"/>
+    <row r="112" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A112" s="98"/>
+      <c r="B112" s="98"/>
       <c r="C112" s="68"/>
       <c r="D112" s="35"/>
       <c r="E112" s="35"/>
@@ -18365,7 +18365,7 @@
       </c>
       <c r="G112" s="35"/>
       <c r="H112" s="73"/>
-      <c r="I112" s="105"/>
+      <c r="I112" s="106"/>
       <c r="J112" s="58"/>
       <c r="K112" s="80"/>
       <c r="L112" s="33">
@@ -18384,8 +18384,8 @@
       <c r="Q112" s="36"/>
     </row>
     <row r="113" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="93"/>
-      <c r="B113" s="93"/>
+      <c r="A113" s="98"/>
+      <c r="B113" s="98"/>
       <c r="C113" s="68"/>
       <c r="D113" s="35"/>
       <c r="E113" s="35"/>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="G113" s="35"/>
       <c r="H113" s="73"/>
-      <c r="I113" s="105"/>
+      <c r="I113" s="106"/>
       <c r="J113" s="58"/>
       <c r="K113" s="80"/>
       <c r="L113" s="33">
@@ -18413,8 +18413,8 @@
       <c r="Q113" s="36"/>
     </row>
     <row r="114" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="94"/>
-      <c r="B114" s="94"/>
+      <c r="A114" s="99"/>
+      <c r="B114" s="99"/>
       <c r="C114" s="69"/>
       <c r="D114" s="35"/>
       <c r="E114" s="35"/>
@@ -18423,7 +18423,7 @@
       </c>
       <c r="G114" s="35"/>
       <c r="H114" s="73"/>
-      <c r="I114" s="106"/>
+      <c r="I114" s="107"/>
       <c r="J114" s="59"/>
       <c r="K114" s="81"/>
       <c r="L114" s="33">
@@ -18442,13 +18442,13 @@
       <c r="Q114" s="36"/>
     </row>
     <row r="115" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="95" t="s">
+      <c r="A115" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="B115" s="92" t="s">
+      <c r="B115" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="C115" s="92" t="s">
+      <c r="C115" s="97" t="s">
         <v>331</v>
       </c>
       <c r="D115" s="35"/>
@@ -18460,18 +18460,18 @@
       <c r="H115" s="62">
         <v>1.25</v>
       </c>
-      <c r="I115" s="102"/>
+      <c r="I115" s="103"/>
       <c r="J115" s="57">
         <v>0.25</v>
       </c>
-      <c r="K115" s="101"/>
+      <c r="K115" s="102"/>
       <c r="L115" s="57">
         <v>1</v>
       </c>
       <c r="M115" s="57">
         <v>1</v>
       </c>
-      <c r="N115" s="101"/>
+      <c r="N115" s="102"/>
       <c r="O115" s="57">
         <v>1.5</v>
       </c>
@@ -18479,9 +18479,9 @@
       <c r="Q115" s="36"/>
     </row>
     <row r="116" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="98"/>
-      <c r="B116" s="93"/>
-      <c r="C116" s="93"/>
+      <c r="A116" s="100"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="98"/>
       <c r="D116" s="35"/>
       <c r="E116" s="32"/>
       <c r="F116" s="31" t="s">
@@ -18489,7 +18489,7 @@
       </c>
       <c r="G116" s="31"/>
       <c r="H116" s="73"/>
-      <c r="I116" s="103"/>
+      <c r="I116" s="104"/>
       <c r="J116" s="58"/>
       <c r="K116" s="58"/>
       <c r="L116" s="58"/>
@@ -18500,9 +18500,9 @@
       <c r="Q116" s="36"/>
     </row>
     <row r="117" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="98"/>
-      <c r="B117" s="93"/>
-      <c r="C117" s="93"/>
+      <c r="A117" s="100"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="98"/>
       <c r="D117" s="35"/>
       <c r="E117" s="32"/>
       <c r="F117" s="31" t="s">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="G117" s="31"/>
       <c r="H117" s="73"/>
-      <c r="I117" s="103"/>
+      <c r="I117" s="104"/>
       <c r="J117" s="58"/>
       <c r="K117" s="58"/>
       <c r="L117" s="58"/>
@@ -18521,9 +18521,9 @@
       <c r="Q117" s="36"/>
     </row>
     <row r="118" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="98"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="93"/>
+      <c r="A118" s="100"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="98"/>
       <c r="D118" s="35"/>
       <c r="E118" s="32"/>
       <c r="F118" s="31" t="s">
@@ -18531,7 +18531,7 @@
       </c>
       <c r="G118" s="31"/>
       <c r="H118" s="73"/>
-      <c r="I118" s="103"/>
+      <c r="I118" s="104"/>
       <c r="J118" s="58"/>
       <c r="K118" s="58"/>
       <c r="L118" s="58"/>
@@ -18542,9 +18542,9 @@
       <c r="Q118" s="36"/>
     </row>
     <row r="119" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="98"/>
-      <c r="B119" s="93"/>
-      <c r="C119" s="93"/>
+      <c r="A119" s="100"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="98"/>
       <c r="D119" s="35"/>
       <c r="E119" s="32"/>
       <c r="F119" s="31" t="s">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="G119" s="31"/>
       <c r="H119" s="73"/>
-      <c r="I119" s="103"/>
+      <c r="I119" s="104"/>
       <c r="J119" s="58"/>
       <c r="K119" s="58"/>
       <c r="L119" s="58"/>
@@ -18563,9 +18563,9 @@
       <c r="Q119" s="36"/>
     </row>
     <row r="120" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="98"/>
-      <c r="B120" s="93"/>
-      <c r="C120" s="94"/>
+      <c r="A120" s="100"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="99"/>
       <c r="D120" s="35"/>
       <c r="E120" s="32"/>
       <c r="F120" s="31" t="s">
@@ -18573,7 +18573,7 @@
       </c>
       <c r="G120" s="31"/>
       <c r="H120" s="73"/>
-      <c r="I120" s="103"/>
+      <c r="I120" s="104"/>
       <c r="J120" s="59"/>
       <c r="K120" s="59"/>
       <c r="L120" s="59"/>
@@ -18583,9 +18583,9 @@
       <c r="P120" s="35"/>
       <c r="Q120" s="36"/>
     </row>
-    <row r="121" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A121" s="98"/>
-      <c r="B121" s="93"/>
+    <row r="121" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A121" s="100"/>
+      <c r="B121" s="98"/>
       <c r="C121" s="31" t="s">
         <v>338</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>340</v>
       </c>
       <c r="H121" s="73"/>
-      <c r="I121" s="103"/>
+      <c r="I121" s="104"/>
       <c r="J121" s="33">
         <v>0.25</v>
       </c>
@@ -18616,10 +18616,10 @@
       <c r="P121" s="35"/>
       <c r="Q121" s="36"/>
     </row>
-    <row r="122" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A122" s="98"/>
-      <c r="B122" s="93"/>
-      <c r="C122" s="92" t="s">
+    <row r="122" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A122" s="100"/>
+      <c r="B122" s="98"/>
+      <c r="C122" s="97" t="s">
         <v>341</v>
       </c>
       <c r="D122" s="35"/>
@@ -18629,7 +18629,7 @@
       </c>
       <c r="G122" s="31"/>
       <c r="H122" s="73"/>
-      <c r="I122" s="103"/>
+      <c r="I122" s="104"/>
       <c r="J122" s="67" t="s">
         <v>343</v>
       </c>
@@ -18647,10 +18647,10 @@
       <c r="P122" s="35"/>
       <c r="Q122" s="36"/>
     </row>
-    <row r="123" spans="1:17" ht="36.950000000000003" customHeight="1">
-      <c r="A123" s="98"/>
-      <c r="B123" s="93"/>
-      <c r="C123" s="94"/>
+    <row r="123" spans="1:17" ht="36.9" customHeight="1">
+      <c r="A123" s="100"/>
+      <c r="B123" s="98"/>
+      <c r="C123" s="99"/>
       <c r="D123" s="35"/>
       <c r="E123" s="32"/>
       <c r="F123" s="31" t="s">
@@ -18658,7 +18658,7 @@
       </c>
       <c r="G123" s="31"/>
       <c r="H123" s="73"/>
-      <c r="I123" s="103"/>
+      <c r="I123" s="104"/>
       <c r="J123" s="69"/>
       <c r="K123" s="69"/>
       <c r="L123" s="33">
@@ -18675,9 +18675,9 @@
       <c r="Q123" s="36"/>
     </row>
     <row r="124" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="98"/>
-      <c r="B124" s="93"/>
-      <c r="C124" s="92" t="s">
+      <c r="A124" s="100"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="97" t="s">
         <v>345</v>
       </c>
       <c r="D124" s="35"/>
@@ -18687,18 +18687,18 @@
       </c>
       <c r="G124" s="31"/>
       <c r="H124" s="73"/>
-      <c r="I124" s="103"/>
+      <c r="I124" s="104"/>
       <c r="J124" s="57">
         <v>0.25</v>
       </c>
-      <c r="K124" s="101"/>
+      <c r="K124" s="102"/>
       <c r="L124" s="57">
         <v>0.5</v>
       </c>
       <c r="M124" s="57">
         <v>0.5</v>
       </c>
-      <c r="N124" s="101"/>
+      <c r="N124" s="102"/>
       <c r="O124" s="57">
         <v>1</v>
       </c>
@@ -18706,9 +18706,9 @@
       <c r="Q124" s="36"/>
     </row>
     <row r="125" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="99"/>
-      <c r="B125" s="94"/>
-      <c r="C125" s="94"/>
+      <c r="A125" s="101"/>
+      <c r="B125" s="99"/>
+      <c r="C125" s="99"/>
       <c r="D125" s="35"/>
       <c r="E125" s="32"/>
       <c r="F125" s="31" t="s">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="G125" s="31"/>
       <c r="H125" s="73"/>
-      <c r="I125" s="97"/>
+      <c r="I125" s="96"/>
       <c r="J125" s="59"/>
       <c r="K125" s="59"/>
       <c r="L125" s="59"/>
@@ -18909,7 +18909,7 @@
         <v>82.811531250000002</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="22.9" customHeight="1">
+    <row r="133" spans="1:17" ht="22.95" customHeight="1">
       <c r="A133" s="47" t="s">
         <v>362</v>
       </c>
@@ -18970,7 +18970,7 @@
       <c r="E134" s="48"/>
       <c r="F134" s="49"/>
       <c r="G134" s="49"/>
-      <c r="H134" s="88">
+      <c r="H134" s="87">
         <f>H133+I133+J133+K133+L133+M133+N133+O133+P133+Q133</f>
         <v>124057.3125</v>
       </c>
@@ -18994,7 +18994,7 @@
       <c r="E135" s="48"/>
       <c r="F135" s="49"/>
       <c r="G135" s="49"/>
-      <c r="H135" s="88">
+      <c r="H135" s="87">
         <f>H134*1.06</f>
         <v>131500.75125</v>
       </c>
@@ -19009,7 +19009,7 @@
       <c r="Q135" s="63"/>
     </row>
     <row r="136" spans="1:17" ht="143.1" customHeight="1">
-      <c r="A136" s="89" t="s">
+      <c r="A136" s="88" t="s">
         <v>365</v>
       </c>
       <c r="B136" s="63"/>
@@ -19031,11 +19031,6 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K78:K88"/>
-    <mergeCell ref="H7:H56"/>
-    <mergeCell ref="H57:H63"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="C36:C41"/>
@@ -19046,8 +19041,12 @@
     <mergeCell ref="J20:J29"/>
     <mergeCell ref="D30:D35"/>
     <mergeCell ref="K20:K29"/>
-    <mergeCell ref="D48:D51"/>
     <mergeCell ref="D36:D41"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="I7:I55"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="H7:H56"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="N124:N125"/>
     <mergeCell ref="J124:J125"/>
     <mergeCell ref="L20:L29"/>
@@ -19064,24 +19063,23 @@
     <mergeCell ref="H115:H125"/>
     <mergeCell ref="C115:C120"/>
     <mergeCell ref="N20:N29"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D20:D29"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="I115:I125"/>
+    <mergeCell ref="I64:I114"/>
+    <mergeCell ref="H64:H114"/>
+    <mergeCell ref="G64:G97"/>
+    <mergeCell ref="C89:C97"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="H57:H63"/>
+    <mergeCell ref="D48:D51"/>
     <mergeCell ref="K89:K97"/>
     <mergeCell ref="O115:O120"/>
     <mergeCell ref="C64:C77"/>
     <mergeCell ref="K98:K114"/>
     <mergeCell ref="K115:K120"/>
     <mergeCell ref="J64:J77"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="I115:I125"/>
-    <mergeCell ref="I64:I114"/>
-    <mergeCell ref="H64:H114"/>
-    <mergeCell ref="G64:G97"/>
-    <mergeCell ref="C89:C97"/>
     <mergeCell ref="L115:L120"/>
-    <mergeCell ref="I7:I55"/>
+    <mergeCell ref="K78:K88"/>
     <mergeCell ref="A136:Q136"/>
     <mergeCell ref="M20:M29"/>
     <mergeCell ref="B64:B114"/>
@@ -19091,7 +19089,6 @@
     <mergeCell ref="K122:K123"/>
     <mergeCell ref="H134:Q134"/>
     <mergeCell ref="C98:C114"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="J30:J35"/>
     <mergeCell ref="M115:M120"/>
     <mergeCell ref="H135:Q135"/>
@@ -19112,6 +19109,9 @@
     <mergeCell ref="B115:B125"/>
     <mergeCell ref="C124:C125"/>
     <mergeCell ref="I57:I60"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D20:D29"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
